--- a/cleaned last season/allroundersetlastseason_ipl.xlsx
+++ b/cleaned last season/allroundersetlastseason_ipl.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/Dataset_Final/cleaned last season/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/cricket-squad-selection/cleaned last season/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F5961B-A948-8743-862A-C117547B3028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B25FD20-3C11-5046-88F9-0C0207B76D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="76">
   <si>
     <t>Player</t>
   </si>
@@ -254,7 +254,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,13 +269,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Tahoma"/>
@@ -317,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -326,9 +319,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -635,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="T52" sqref="T52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -793,35 +783,35 @@
       <c r="O2" s="3">
         <v>16</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>59</v>
+      <c r="P2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0</v>
+      </c>
+      <c r="U2" s="3">
+        <v>100</v>
+      </c>
+      <c r="V2" s="3">
+        <v>100</v>
+      </c>
+      <c r="W2" s="3">
+        <v>100</v>
+      </c>
+      <c r="X2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>0</v>
       </c>
       <c r="Z2" s="3">
         <v>7</v>
@@ -1223,14 +1213,14 @@
       <c r="T7" s="3">
         <v>0</v>
       </c>
-      <c r="U7" s="3" t="s">
-        <v>59</v>
+      <c r="U7" s="3">
+        <v>100</v>
       </c>
       <c r="V7" s="3">
         <v>10.58</v>
       </c>
-      <c r="W7" s="3" t="s">
-        <v>59</v>
+      <c r="W7" s="3">
+        <v>100</v>
       </c>
       <c r="X7" s="3">
         <v>0</v>
@@ -1472,14 +1462,14 @@
       <c r="T10" s="3">
         <v>0</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>59</v>
+      <c r="U10" s="3">
+        <v>100</v>
       </c>
       <c r="V10" s="3">
         <v>7.33</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>59</v>
+      <c r="W10" s="3">
+        <v>100</v>
       </c>
       <c r="X10" s="3">
         <v>0</v>
@@ -2302,14 +2292,14 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>59</v>
+      <c r="U20" s="3">
+        <v>100</v>
       </c>
       <c r="V20" s="3">
         <v>7.5</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>59</v>
+      <c r="W20" s="3">
+        <v>100</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
@@ -2468,14 +2458,14 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>59</v>
+      <c r="U22" s="3">
+        <v>100</v>
       </c>
       <c r="V22" s="3">
         <v>18</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>59</v>
+      <c r="W22" s="3">
+        <v>100</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -2883,14 +2873,14 @@
       <c r="T27" s="2">
         <v>0</v>
       </c>
-      <c r="U27" s="2" t="s">
-        <v>59</v>
+      <c r="U27" s="2">
+        <v>100</v>
       </c>
       <c r="V27" s="2">
         <v>11.78</v>
       </c>
-      <c r="W27" s="2" t="s">
-        <v>59</v>
+      <c r="W27" s="2">
+        <v>100</v>
       </c>
       <c r="X27" s="2">
         <v>0</v>
@@ -2966,14 +2956,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-      <c r="U28" s="3" t="s">
-        <v>59</v>
+      <c r="U28" s="3">
+        <v>100</v>
       </c>
       <c r="V28" s="3">
         <v>12</v>
       </c>
-      <c r="W28" s="3" t="s">
-        <v>59</v>
+      <c r="W28" s="3">
+        <v>100</v>
       </c>
       <c r="X28" s="3">
         <v>0</v>
@@ -3298,14 +3288,14 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>59</v>
+      <c r="U32" s="3">
+        <v>100</v>
       </c>
       <c r="V32" s="3">
         <v>9</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>59</v>
+      <c r="W32" s="3">
+        <v>100</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
@@ -3381,14 +3371,14 @@
       <c r="T33" s="2">
         <v>0</v>
       </c>
-      <c r="U33" s="2" t="s">
-        <v>59</v>
+      <c r="U33" s="2">
+        <v>100</v>
       </c>
       <c r="V33" s="2">
         <v>3.5</v>
       </c>
-      <c r="W33" s="2" t="s">
-        <v>59</v>
+      <c r="W33" s="2">
+        <v>100</v>
       </c>
       <c r="X33" s="2">
         <v>0</v>
@@ -3630,14 +3620,14 @@
       <c r="T36" s="3">
         <v>0</v>
       </c>
-      <c r="U36" s="3" t="s">
-        <v>59</v>
+      <c r="U36" s="3">
+        <v>100</v>
       </c>
       <c r="V36" s="3">
         <v>6.92</v>
       </c>
-      <c r="W36" s="3" t="s">
-        <v>59</v>
+      <c r="W36" s="3">
+        <v>100</v>
       </c>
       <c r="X36" s="3">
         <v>0</v>
@@ -3796,14 +3786,14 @@
       <c r="T38" s="3">
         <v>0</v>
       </c>
-      <c r="U38" s="3" t="s">
-        <v>59</v>
+      <c r="U38" s="3">
+        <v>100</v>
       </c>
       <c r="V38" s="3">
         <v>13.5</v>
       </c>
-      <c r="W38" s="3" t="s">
-        <v>59</v>
+      <c r="W38" s="3">
+        <v>100</v>
       </c>
       <c r="X38" s="3">
         <v>0</v>
@@ -4279,35 +4269,35 @@
       <c r="O44" s="3">
         <v>7</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="R44" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="T44" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="U44" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="V44" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="W44" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="X44" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y44" s="3" t="s">
-        <v>59</v>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>100</v>
+      </c>
+      <c r="V44" s="3">
+        <v>100</v>
+      </c>
+      <c r="W44" s="3">
+        <v>100</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
       </c>
       <c r="Z44" s="3">
         <v>5</v>
@@ -4626,14 +4616,14 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>59</v>
+      <c r="U48" s="3">
+        <v>100</v>
       </c>
       <c r="V48" s="3">
         <v>6.5</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>59</v>
+      <c r="W48" s="3">
+        <v>100</v>
       </c>
       <c r="X48" s="3">
         <v>0</v>
